--- a/proj6/results.xlsx
+++ b/proj6/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\rhel9\home\vlee\repos\cs475\proj6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B1ADEC91-3638-4439-B52E-A293D431A73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{51BCFCCD-3FB5-4463-ADF6-0D314CCB79E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="0" windowWidth="23232" windowHeight="25296" activeTab="2" xr2:uid="{7383A934-0040-4E9F-AAFE-D119997DDEA5}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="23232" windowHeight="25296" activeTab="2" xr2:uid="{7383A934-0040-4E9F-AAFE-D119997DDEA5}"/>
   </bookViews>
   <sheets>
     <sheet name="all-results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>rabbit results</t>
   </si>
@@ -197,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +383,18 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -553,7 +565,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,6 +576,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -703,7 +728,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$A$2</c:f>
+              <c:f>table!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -738,7 +763,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$B$1:$G$1</c:f>
+              <c:f>table!$C$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -765,7 +790,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$B$2:$G$2</c:f>
+              <c:f>table!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -802,7 +827,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$A$3</c:f>
+              <c:f>table!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -837,7 +862,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$B$1:$G$1</c:f>
+              <c:f>table!$C$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -864,7 +889,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$B$3:$G$3</c:f>
+              <c:f>table!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -901,7 +926,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$A$4</c:f>
+              <c:f>table!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -936,7 +961,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$B$1:$G$1</c:f>
+              <c:f>table!$C$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -963,7 +988,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$B$4:$G$4</c:f>
+              <c:f>table!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1000,7 +1025,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$A$5</c:f>
+              <c:f>table!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1035,7 +1060,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$B$1:$G$1</c:f>
+              <c:f>table!$C$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1062,7 +1087,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$B$5:$G$5</c:f>
+              <c:f>table!$C$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1099,7 +1124,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$A$6</c:f>
+              <c:f>table!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1134,7 +1159,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$B$1:$G$1</c:f>
+              <c:f>table!$C$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1161,7 +1186,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$B$6:$G$6</c:f>
+              <c:f>table!$C$7:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1463,7 +1488,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.91048054919908472"/>
           <c:y val="0.36996482419102644"/>
-          <c:w val="6.3831652783866724E-2"/>
+          <c:w val="6.3943785682916116E-2"/>
           <c:h val="0.20550341115295703"/>
         </c:manualLayout>
       </c:layout>
@@ -1621,7 +1646,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$B$1</c:f>
+              <c:f>table!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1656,7 +1681,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$A$2:$A$6</c:f>
+              <c:f>table!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1680,7 +1705,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$B$2:$B$6</c:f>
+              <c:f>table!$C$3:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1714,7 +1739,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$C$1</c:f>
+              <c:f>table!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1749,7 +1774,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$A$2:$A$6</c:f>
+              <c:f>table!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1773,7 +1798,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$C$2:$C$6</c:f>
+              <c:f>table!$D$3:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1807,7 +1832,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$D$1</c:f>
+              <c:f>table!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1842,7 +1867,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$A$2:$A$6</c:f>
+              <c:f>table!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1866,7 +1891,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$D$2:$D$6</c:f>
+              <c:f>table!$E$3:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1900,7 +1925,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$E$1</c:f>
+              <c:f>table!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1935,7 +1960,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$A$2:$A$6</c:f>
+              <c:f>table!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1959,7 +1984,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$E$2:$E$6</c:f>
+              <c:f>table!$F$3:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1993,7 +2018,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$F$1</c:f>
+              <c:f>table!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2028,7 +2053,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$A$2:$A$6</c:f>
+              <c:f>table!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2052,7 +2077,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$F$2:$F$6</c:f>
+              <c:f>table!$G$3:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2086,7 +2111,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>table!$G$1</c:f>
+              <c:f>table!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2121,7 +2146,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>table!$A$2:$A$6</c:f>
+              <c:f>table!$B$3:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2145,7 +2170,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>table!$G$2:$G$6</c:f>
+              <c:f>table!$H$3:$H$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2444,7 +2469,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.90025107558617856"/>
           <c:y val="0.36996482410325626"/>
-          <c:w val="9.0486628671635247E-2"/>
+          <c:w val="9.0645586297760206E-2"/>
           <c:h val="0.24660409338354844"/>
         </c:manualLayout>
       </c:layout>
@@ -3638,15 +3663,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>681990</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>9144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3674,15 +3699,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>681990</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>92964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5584,154 +5609,176 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA2D295-68DA-48AF-9EC8-EFDA66F3A101}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="9"/>
+      <c r="C2" s="4">
         <v>4096</v>
       </c>
-      <c r="C1" s="4">
+      <c r="D2" s="4">
         <v>16384</v>
       </c>
-      <c r="D1" s="4">
+      <c r="E2" s="4">
         <v>65536</v>
       </c>
-      <c r="E1" s="4">
+      <c r="F2" s="4">
         <v>262144</v>
       </c>
-      <c r="F1" s="4">
+      <c r="G2" s="4">
         <v>1048576</v>
       </c>
-      <c r="G1" s="4">
+      <c r="H2" s="4">
         <v>4194304</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C3" s="3">
         <v>105.32</v>
       </c>
-      <c r="C2" s="3">
+      <c r="D3" s="3">
         <v>409.68</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E3" s="3">
         <v>1314.17</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F3" s="3">
         <v>863.86</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G3" s="3">
         <v>1576.68</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H3" s="3">
         <v>3181.46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8">
         <v>32</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C4" s="3">
         <v>106.38</v>
       </c>
-      <c r="C3" s="3">
+      <c r="D4" s="3">
         <v>426.73</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E4" s="3">
         <v>1618.14</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F4" s="3">
         <v>996.91</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G4" s="3">
         <v>2109.48</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H4" s="3">
         <v>5729.34</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8">
         <v>64</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C5" s="3">
         <v>104.21</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D5" s="3">
         <v>423.09</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E5" s="3">
         <v>1684.65</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F5" s="3">
         <v>972.72</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G5" s="3">
         <v>2192.0100000000002</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H5" s="3">
         <v>6906.66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8">
         <v>128</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C6" s="3">
         <v>105.57</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D6" s="3">
         <v>430.04</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E6" s="3">
         <v>1677.34</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F6" s="3">
         <v>1036.81</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G6" s="3">
         <v>2210.77</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H6" s="3">
         <v>6707.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8">
         <v>256</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C7" s="3">
         <v>105.35</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D7" s="3">
         <v>413.21</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E7" s="3">
         <v>1676.62</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F7" s="3">
         <v>985.65</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G7" s="3">
         <v>2240.63</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H7" s="3">
         <v>7083.8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
